--- a/tool/6_res_str/res_ntac.xlsx
+++ b/tool/6_res_str/res_ntac.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>default</t>
   </si>
@@ -41,13 +41,126 @@
   </si>
   <si>
     <t>xcap</t>
+  </si>
+  <si>
+    <t>roaming_protocol</t>
+  </si>
+  <si>
+    <t>ipv6v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>对比</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>显示:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BROWSER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access Option</t>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readonly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth Type</t>
+  </si>
+  <si>
+    <t>PAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +176,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -401,85 +523,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D13"/>
+  <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D13" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tool/6_res_str/res_ntac.xlsx
+++ b/tool/6_res_str/res_ntac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>default</t>
   </si>
@@ -154,6 +154,9 @@
   <si>
     <t>NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type="default,xcap,hipri,supl"</t>
   </si>
 </sst>
 </file>
@@ -523,20 +526,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -545,7 +548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -565,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -585,7 +588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="F7">
         <v>5</v>
       </c>
@@ -593,7 +596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -604,7 +607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -612,12 +615,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -628,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -642,7 +645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -650,7 +653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -658,7 +661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -672,22 +675,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
       <c r="K18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
         <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D20">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/tool/6_res_str/res_ntac.xlsx
+++ b/tool/6_res_str/res_ntac.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="参数名称及含义" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>default</t>
   </si>
@@ -158,12 +159,224 @@
   <si>
     <t>type="default,xcap,hipri,supl"</t>
   </si>
+  <si>
+    <t>Setting Name</t>
+  </si>
+  <si>
+    <t>Uiorder</t>
+  </si>
+  <si>
+    <t>MVNO Type</t>
+  </si>
+  <si>
+    <t>MVNO Value</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t>MNC</t>
+  </si>
+  <si>
+    <t>APN</t>
+  </si>
+  <si>
+    <t>Access Type</t>
+  </si>
+  <si>
+    <t>Proxy Server IP</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>First DNS</t>
+  </si>
+  <si>
+    <t>Second DNS</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>Roaming</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>运营商的名称，最大长度为 28 个字符。</t>
+  </si>
+  <si>
+    <t>优先级，值越小优先级越高。</t>
+  </si>
+  <si>
+    <t>虚拟运营商类型，可根据虚拟运营商类型对 APN 进行筛选。</t>
+  </si>
+  <si>
+    <t>理论值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟运营商类型筛选值，与 MVNO Type 配合使用。</t>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动国家码。</t>
+  </si>
+  <si>
+    <t>移动网络码。</t>
+  </si>
+  <si>
+    <t>0,1,5,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入点名称，实际发送给网络激活 PDN 链路的字符串。</t>
+  </si>
+  <si>
+    <t>接入类型，当前有如下两种接入类型：  0：wap  1：http</t>
+  </si>
+  <si>
+    <t>0~1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该 APN 是否允许终端用户编辑：  0：可编辑  1：不可编辑</t>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即 Gateway 地址（网关地址），最长支持 80 个字符。</t>
+  </si>
+  <si>
+    <t>10.1.1.2</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>端口</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>DNS（Domain Name System，域名系统）地址，当前不支持配置，无配置 下发接口。</t>
+  </si>
+  <si>
+    <t>备用 DNS 地址，当前不支持配置，无配置下发接口。</t>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+  </si>
+  <si>
+    <t>主页，最长支持 128 个字符。</t>
+  </si>
+  <si>
+    <t>认证类型，当前支持如下四种：  PAP（0）  CHAP（1）  PAP/CHAP（2）  NONE（3）</t>
+  </si>
+  <si>
+    <t>0,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即 IP TYPE，当前支持如下三种：  IPV4（0）  IPV6（1） IPV4/IPV6（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该 APN 是否对终端用户可见：  0：不可见  1：可见</t>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否支持漫游：  0：不支持  1：支持 当前不支持该功能。</t>
+  </si>
+  <si>
+    <t>处于漫游状态使用数据的 IP TYPE，分为如下三种：  IPV4（0）  IPV6（1）  IPV4/IPV6（2） 当前不支持该功能。</t>
+  </si>
+  <si>
+    <t>APN Excel 表格各参数名称及含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>type=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"default,ia,supl"</t>
+    </r>
+  </si>
+  <si>
+    <t>最新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该不会大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mms</t>
+  </si>
+  <si>
+    <t>APN 类型 default 为 0，mms 为 1，ims 为 5，xcap 为 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,13 +408,47 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,11 +463,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,13 +792,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K20"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
@@ -702,6 +968,16 @@
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D20">
         <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -709,4 +985,309 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="54.625" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tool/6_res_str/res_ntac.xlsx
+++ b/tool/6_res_str/res_ntac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>default</t>
   </si>
@@ -332,9 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否支持漫游：  0：不支持  1：支持 当前不支持该功能。</t>
-  </si>
-  <si>
     <t>处于漫游状态使用数据的 IP TYPE，分为如下三种：  IPV4（0）  IPV6（1）  IPV4/IPV6（2） 当前不支持该功能。</t>
   </si>
   <si>
@@ -371,12 +368,34 @@
     <t>APN 类型 default 为 0，mms 为 1，ims 为 5，xcap 为 8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>是否支持漫游：  0：不支持  1：支持 当前不支持该功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前不支持</t>
+  </si>
+  <si>
+    <t>一般xcap不可编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default,supl,mms</t>
+  </si>
+  <si>
+    <t>太多了，不用脚本太麻烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +449,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -463,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -488,6 +514,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -792,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K25"/>
+  <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -972,12 +999,25 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -991,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1004,7 +1044,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="5" t="s">
@@ -1099,7 +1139,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>50</v>
@@ -1113,7 +1153,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1193,7 +1233,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1204,7 +1244,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1212,10 +1252,10 @@
         <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1229,7 +1269,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1243,7 +1283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1256,13 +1296,16 @@
       <c r="D21" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -1270,19 +1313,25 @@
       <c r="D22" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E22" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
       </c>
       <c r="D23" s="6">
         <v>0</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/tool/6_res_str/res_ntac.xlsx
+++ b/tool/6_res_str/res_ntac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -358,10 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应该不会大小写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://mms</t>
   </si>
   <si>
@@ -388,6 +384,10 @@
   </si>
   <si>
     <t>太多了，不用脚本太麻烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该不区分大小写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1009,15 +1009,15 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
         <v>85</v>
-      </c>
-      <c r="D29" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1139,7 +1139,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>50</v>
@@ -1153,7 +1153,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1252,7 +1252,7 @@
         <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1297,7 +1297,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1305,16 +1305,16 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/tool/6_res_str/res_ntac.xlsx
+++ b/tool/6_res_str/res_ntac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>default</t>
   </si>
@@ -388,6 +388,30 @@
   </si>
   <si>
     <t>应该不区分大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不清楚的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>type=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"dun"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像是net---虚拟运营商</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K29"/>
+  <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1018,6 +1042,19 @@
       </c>
       <c r="D29" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="B34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1031,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
